--- a/MedbayTickets.xlsx
+++ b/MedbayTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/universe-mac/Desktop/Medbay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B0C4501-6C56-1C4C-8587-E0AE7C421D2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDBA69E-92CC-524F-9032-6A884B3F3540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{3D1839B1-8D24-D049-8419-FDFD3A593D0E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Ticket #1</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Completed but can be improved</t>
+  </si>
+  <si>
+    <t>add images to camper object</t>
+  </si>
+  <si>
+    <t>Built medication detail view model</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -203,11 +215,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -217,8 +230,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +554,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,8 +562,8 @@
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
@@ -568,10 +586,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
@@ -580,10 +601,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="9"/>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -595,7 +616,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -603,7 +624,7 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -611,7 +632,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -624,61 +645,67 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="7"/>
+      <c r="E17" s="3"/>
       <c r="F17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="8"/>
+      <c r="E18" s="4"/>
       <c r="F18" t="s">
         <v>27</v>
       </c>

--- a/MedbayTickets.xlsx
+++ b/MedbayTickets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/universe-mac/Desktop/Medbay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDBA69E-92CC-524F-9032-6A884B3F3540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67A2D66-AA0F-3340-BE61-3E6A1DAE4748}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{3D1839B1-8D24-D049-8419-FDFD3A593D0E}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{3D1839B1-8D24-D049-8419-FDFD3A593D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Ticket #1</t>
   </si>
@@ -87,21 +87,6 @@
     <t>TODO</t>
   </si>
   <si>
-    <t>Build medication detail view and view model</t>
-  </si>
-  <si>
-    <t>3: View must display the identification of the camper via name and image</t>
-  </si>
-  <si>
-    <t>4: View must display details for the scheduled medication</t>
-  </si>
-  <si>
-    <t>5: Employee users can check the status of medication with a press of a button/toggle</t>
-  </si>
-  <si>
-    <t>6: updating the medication status should log the current time and id of the employee</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -115,12 +100,42 @@
   </si>
   <si>
     <t>Built medication detail view model</t>
+  </si>
+  <si>
+    <t>Perform unit test on medication detail view model</t>
+  </si>
+  <si>
+    <t>Build medication detail view model</t>
+  </si>
+  <si>
+    <t>1: View must display the identification of the camper via name and image</t>
+  </si>
+  <si>
+    <t>2: View must display details for the scheduled medication</t>
+  </si>
+  <si>
+    <t>3: Employee users can check the status of medication with a press of a button/toggle</t>
+  </si>
+  <si>
+    <t>4: updating the medication status should log the current time and id of the employee</t>
+  </si>
+  <si>
+    <t>Create simple medication view to display current data in medication detail view model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket #3 </t>
+  </si>
+  <si>
+    <t>add a button to override medication times</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -215,13 +230,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -230,13 +249,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85549B12-AC40-6045-8B7D-28B8468629D1}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,7 +582,7 @@
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="63.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
@@ -586,12 +606,12 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -601,10 +621,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="D3" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -616,7 +639,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -624,7 +647,7 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -632,7 +655,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -645,10 +668,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -663,64 +686,89 @@
       <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="4"/>
+      <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="12">
+        <v>43451</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="3"/>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="4"/>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+  <mergeCells count="10">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
